--- a/Excel/2022/第一期/知识卡第一期.xlsx
+++ b/Excel/2022/第一期/知识卡第一期.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="从青铜到王者卡片-右值引用" sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="从青铜到王者卡片-共享指针" sheetId="6" r:id="rId1"/>
+    <sheet name="从青铜到王者卡片-右值引用" sheetId="3" r:id="rId2"/>
     <sheet name="从青铜到王者卡片2  C++模板编译模型" sheetId="2" r:id="rId3"/>
     <sheet name="从青铜到王者卡片-Lambda 表达式" sheetId="1" r:id="rId4"/>
     <sheet name="线程池实现" sheetId="5" r:id="rId5"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="92">
   <si>
     <t xml:space="preserve">一、这个技术出现的背景、初衷和要达到什么样的目标或是要解决什么样的问题 </t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -375,6 +375,42 @@
   </si>
   <si>
     <t>编译器和连接器区别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">小贴士：青铜直觉提问 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小贴士：王者回答</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Can_enable_shared--std::enable_shared_from_this实现原理中比较关键的一个部分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q1. 一个base 类不声明为虚析构函数，share_ptr能正确释放吗？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> share_pt根本不知道创建内容t 是否继承，enable_shared_from_this 真没设置Weakptr?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>make_shared() --函数的参数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>_Ref_count_obj2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>_Ref_count_obj2类仅仅计数和ptr没有关系，构造函数为什么参数末班1和 自己末班2不一样</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -585,7 +621,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -662,6 +698,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -716,16 +768,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="差" xfId="5" builtinId="27"/>
@@ -749,6 +800,49 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1447800</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7485712</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>123406</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1447800" y="9582150"/>
+          <a:ext cx="7504762" cy="3352381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -791,7 +885,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1135,6 +1229,290 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.25" customWidth="1"/>
+    <col min="2" max="2" width="123.5" customWidth="1"/>
+    <col min="3" max="3" width="55.625" customWidth="1"/>
+    <col min="4" max="4" width="99.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="16"/>
+    </row>
+    <row r="2" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="43"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="35"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="16"/>
+    </row>
+    <row r="5" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="35"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="20"/>
+    </row>
+    <row r="6" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="35"/>
+      <c r="B6" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="35"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="35"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="16"/>
+    </row>
+    <row r="9" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="35"/>
+      <c r="B9" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="35"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="38"/>
+    </row>
+    <row r="11" spans="1:4" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="35"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="39"/>
+    </row>
+    <row r="12" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="35"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="39"/>
+    </row>
+    <row r="13" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A13" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="35">
+        <v>1</v>
+      </c>
+      <c r="B14" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="35">
+        <v>2</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="16"/>
+    </row>
+    <row r="16" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A16" s="35"/>
+      <c r="B16" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="35">
+        <v>1</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="16"/>
+    </row>
+    <row r="18" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="35">
+        <v>2</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="16"/>
+    </row>
+    <row r="19" spans="1:4" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="16"/>
+    </row>
+    <row r="20" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="35">
+        <v>3</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="16"/>
+    </row>
+    <row r="21" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A21" s="35"/>
+      <c r="B21" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="35"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="47" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A23" s="35"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="47"/>
+    </row>
+    <row r="24" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A24" s="35"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="16"/>
+    </row>
+    <row r="25" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A25" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="16"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="33"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="16"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="33"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="16"/>
+    </row>
+    <row r="28" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A28" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="16"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="16"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="16"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="16"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="D10:D12"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C22" r:id="rId1"/>
+    <hyperlink ref="C14" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId3"/>
+  <drawing r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1150,17 +1528,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="45" t="s">
         <v>30</v>
       </c>
       <c r="C1" s="16"/>
     </row>
     <row r="2" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="37"/>
-      <c r="B2" s="40"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="46"/>
       <c r="C2" s="17" t="s">
         <v>6</v>
       </c>
@@ -1184,7 +1562,7 @@
     </row>
     <row r="4" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="44" t="s">
         <v>39</v>
       </c>
       <c r="C4" s="16" t="s">
@@ -1196,7 +1574,7 @@
     </row>
     <row r="5" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
-      <c r="B5" s="35"/>
+      <c r="B5" s="41"/>
       <c r="C5" s="20" t="s">
         <v>37</v>
       </c>
@@ -1212,7 +1590,7 @@
     </row>
     <row r="7" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="41" t="s">
         <v>32</v>
       </c>
       <c r="C7" s="16" t="s">
@@ -1224,7 +1602,7 @@
     </row>
     <row r="8" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
-      <c r="B8" s="35"/>
+      <c r="B8" s="41"/>
       <c r="C8" s="16"/>
     </row>
     <row r="9" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1238,25 +1616,25 @@
     </row>
     <row r="10" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
-      <c r="B10" s="35"/>
+      <c r="B10" s="41"/>
       <c r="C10" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="38" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
-      <c r="B11" s="35"/>
+      <c r="B11" s="41"/>
       <c r="C11" s="16"/>
-      <c r="D11" s="33"/>
+      <c r="D11" s="39"/>
     </row>
     <row r="12" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
-      <c r="B12" s="35"/>
+      <c r="B12" s="41"/>
       <c r="C12" s="16"/>
-      <c r="D12" s="33"/>
+      <c r="D12" s="39"/>
     </row>
     <row r="13" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
@@ -1271,7 +1649,7 @@
     </row>
     <row r="14" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="40" t="s">
         <v>48</v>
       </c>
       <c r="C14" s="20" t="s">
@@ -1280,7 +1658,7 @@
     </row>
     <row r="15" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
-      <c r="B15" s="34"/>
+      <c r="B15" s="40"/>
       <c r="C15" s="16"/>
     </row>
     <row r="16" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -1294,7 +1672,7 @@
     </row>
     <row r="17" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19"/>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="40" t="s">
         <v>46</v>
       </c>
       <c r="C17" s="16"/>
@@ -1304,7 +1682,7 @@
     </row>
     <row r="18" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="19"/>
-      <c r="B18" s="34"/>
+      <c r="B18" s="40"/>
       <c r="C18" s="16"/>
     </row>
     <row r="19" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -1318,21 +1696,21 @@
     </row>
     <row r="20" spans="1:4" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="19"/>
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="41" t="s">
         <v>47</v>
       </c>
       <c r="C20" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="41" t="s">
+      <c r="D20" s="47" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A21" s="19"/>
-      <c r="B21" s="35"/>
+      <c r="B21" s="41"/>
       <c r="C21" s="16"/>
-      <c r="D21" s="41"/>
+      <c r="D21" s="47"/>
     </row>
     <row r="22" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A22" s="19"/>
@@ -1415,24 +1793,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -1445,14 +1810,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="53" t="s">
         <v>20</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="8"/>
     </row>
     <row r="2" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="47"/>
+      <c r="A2" s="53"/>
       <c r="B2" s="12" t="s">
         <v>23</v>
       </c>
@@ -1483,14 +1848,14 @@
     </row>
     <row r="5" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="54" t="s">
         <v>25</v>
       </c>
       <c r="D5" s="13"/>
     </row>
     <row r="6" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="46"/>
+      <c r="B6" s="52"/>
     </row>
     <row r="7" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
@@ -1503,14 +1868,14 @@
     </row>
     <row r="8" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="46"/>
+      <c r="B8" s="52"/>
       <c r="D8" s="31" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="46"/>
+      <c r="B9" s="52"/>
     </row>
     <row r="10" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
@@ -1520,28 +1885,28 @@
       <c r="C10" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="37" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="42" t="s">
+      <c r="D11" s="48" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="46"/>
-      <c r="D12" s="33"/>
+      <c r="B12" s="52"/>
+      <c r="D12" s="39"/>
     </row>
     <row r="13" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="46"/>
-      <c r="D13" s="33"/>
+      <c r="B13" s="52"/>
+      <c r="D13" s="39"/>
     </row>
     <row r="14" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
@@ -1556,7 +1921,7 @@
     </row>
     <row r="15" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="49" t="s">
         <v>26</v>
       </c>
       <c r="D15" s="14" t="s">
@@ -1565,7 +1930,7 @@
     </row>
     <row r="16" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="44"/>
+      <c r="B16" s="50"/>
       <c r="D16" s="14" t="s">
         <v>27</v>
       </c>
@@ -1582,14 +1947,14 @@
     </row>
     <row r="18" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
-      <c r="B18" s="45"/>
+      <c r="B18" s="51"/>
       <c r="D18" s="31" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
-      <c r="B19" s="45"/>
+      <c r="B19" s="51"/>
       <c r="D19" s="31" t="s">
         <v>74</v>
       </c>
@@ -1605,13 +1970,13 @@
     </row>
     <row r="21" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="52" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
-      <c r="B22" s="46"/>
+      <c r="B22" s="52"/>
     </row>
     <row r="23" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
@@ -1694,7 +2059,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -1707,13 +2072,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="55" t="s">
         <v>20</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="44"/>
+      <c r="A2" s="50"/>
       <c r="B2" s="1" t="s">
         <v>59</v>
       </c>
@@ -1740,7 +2105,7 @@
     </row>
     <row r="4" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="52" t="s">
         <v>54</v>
       </c>
       <c r="D4" t="s">
@@ -1749,7 +2114,7 @@
     </row>
     <row r="5" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="46"/>
+      <c r="B5" s="52"/>
       <c r="D5" s="13" t="s">
         <v>52</v>
       </c>
@@ -1768,7 +2133,7 @@
     </row>
     <row r="7" spans="1:4" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="52" t="s">
         <v>53</v>
       </c>
       <c r="D7" s="31" t="s">
@@ -1777,7 +2142,7 @@
     </row>
     <row r="8" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="46"/>
+      <c r="B8" s="52"/>
     </row>
     <row r="9" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
@@ -1790,22 +2155,22 @@
     </row>
     <row r="10" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="38" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
-      <c r="B11" s="46"/>
-      <c r="D11" s="33"/>
+      <c r="B11" s="52"/>
+      <c r="D11" s="39"/>
     </row>
     <row r="12" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
-      <c r="B12" s="46"/>
-      <c r="D12" s="33"/>
+      <c r="B12" s="52"/>
+      <c r="D12" s="39"/>
     </row>
     <row r="13" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
@@ -1820,11 +2185,11 @@
     </row>
     <row r="14" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
-      <c r="B14" s="45"/>
+      <c r="B14" s="51"/>
     </row>
     <row r="15" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
-      <c r="B15" s="45"/>
+      <c r="B15" s="51"/>
     </row>
     <row r="16" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
@@ -1837,13 +2202,13 @@
     </row>
     <row r="17" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
-      <c r="B17" s="51" t="s">
+      <c r="B17" s="56" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
-      <c r="B18" s="45"/>
+      <c r="B18" s="51"/>
     </row>
     <row r="19" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
@@ -1856,7 +2221,7 @@
     </row>
     <row r="20" spans="1:4" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
-      <c r="B20" s="50" t="s">
+      <c r="B20" s="57" t="s">
         <v>57</v>
       </c>
       <c r="C20" s="31" t="s">
@@ -1865,7 +2230,7 @@
     </row>
     <row r="21" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
-      <c r="B21" s="46"/>
+      <c r="B21" s="52"/>
     </row>
     <row r="22" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
@@ -1939,17 +2304,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="45" t="s">
         <v>62</v>
       </c>
       <c r="C1" s="16"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="37"/>
-      <c r="B2" s="40"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="46"/>
       <c r="C2" s="17" t="s">
         <v>6</v>
       </c>
@@ -1958,7 +2323,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="36" t="s">
         <v>68</v>
       </c>
       <c r="B3" s="22" t="s">
@@ -1975,7 +2340,7 @@
       <c r="A4" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="38"/>
+      <c r="B4" s="44"/>
       <c r="C4" s="16"/>
       <c r="D4" t="s">
         <v>65</v>
@@ -1983,7 +2348,7 @@
     </row>
     <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="27"/>
-      <c r="B5" s="35"/>
+      <c r="B5" s="41"/>
       <c r="C5" s="20"/>
       <c r="D5" t="s">
         <v>66</v>
@@ -2005,14 +2370,14 @@
     </row>
     <row r="7" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" s="27"/>
-      <c r="B7" s="35"/>
+      <c r="B7" s="41"/>
       <c r="C7" s="16" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A8" s="27"/>
-      <c r="B8" s="35"/>
+      <c r="B8" s="41"/>
       <c r="C8" s="16"/>
     </row>
     <row r="9" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -2028,25 +2393,25 @@
     </row>
     <row r="10" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A10" s="27"/>
-      <c r="B10" s="35"/>
+      <c r="B10" s="41"/>
       <c r="C10" s="16"/>
-      <c r="D10" s="32"/>
+      <c r="D10" s="38"/>
     </row>
     <row r="11" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A11" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="B11" s="35"/>
+      <c r="B11" s="41"/>
       <c r="C11" s="16"/>
-      <c r="D11" s="33"/>
+      <c r="D11" s="39"/>
     </row>
     <row r="12" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A12" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="B12" s="35"/>
+      <c r="B12" s="41"/>
       <c r="C12" s="16"/>
-      <c r="D12" s="33"/>
+      <c r="D12" s="39"/>
     </row>
     <row r="13" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A13" s="27" t="s">
@@ -2061,12 +2426,12 @@
     </row>
     <row r="14" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A14" s="27"/>
-      <c r="B14" s="34"/>
+      <c r="B14" s="40"/>
       <c r="C14" s="20"/>
     </row>
     <row r="15" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A15" s="27"/>
-      <c r="B15" s="34"/>
+      <c r="B15" s="40"/>
       <c r="C15" s="16"/>
     </row>
     <row r="16" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -2080,12 +2445,12 @@
     </row>
     <row r="17" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A17" s="27"/>
-      <c r="B17" s="34"/>
+      <c r="B17" s="40"/>
       <c r="C17" s="16"/>
     </row>
     <row r="18" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A18" s="27"/>
-      <c r="B18" s="34"/>
+      <c r="B18" s="40"/>
       <c r="C18" s="16"/>
     </row>
     <row r="19" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -2097,15 +2462,15 @@
     </row>
     <row r="20" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A20" s="27"/>
-      <c r="B20" s="35"/>
+      <c r="B20" s="41"/>
       <c r="C20" s="20"/>
-      <c r="D20" s="41"/>
+      <c r="D20" s="47"/>
     </row>
     <row r="21" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A21" s="27"/>
-      <c r="B21" s="35"/>
+      <c r="B21" s="41"/>
       <c r="C21" s="16"/>
-      <c r="D21" s="41"/>
+      <c r="D21" s="47"/>
     </row>
     <row r="22" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A22" s="27"/>
